--- a/QLNhaHang/QLNhaHang/bin/Debug/ThongKeMon.xlsx
+++ b/QLNhaHang/QLNhaHang/bin/Debug/ThongKeMon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PhamHongSon\Desktop\DoAnMonHoc\PTPMUDTM\DoAn_Off\DoAnQLNhaHang\QLNhaHang\QLNhaHang\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8E793D-DDC1-4BC6-8F11-88E3668C9609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F04EE17-88C3-4FB1-9C8E-6D941D4326DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DA77CFC3-7A97-4F44-B215-790BF8DF1C18}"/>
   </bookViews>
@@ -192,9 +192,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -219,6 +216,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -232,13 +236,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,14 +556,14 @@
   <dimension ref="B3:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="6.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" style="8" customWidth="1"/>
     <col min="4" max="4" width="32.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.88671875" style="1" customWidth="1"/>
@@ -571,72 +571,72 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C9" s="3"/>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="14" t="s">
         <v>10</v>
       </c>
     </row>
@@ -644,48 +644,48 @@
       <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="15"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="5">
